--- a/Teste de mesa.xlsx
+++ b/Teste de mesa.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\UC6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AD301D-DA01-4D1F-BC52-8FF078C4CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C082CE3-7ADE-4C59-BF1F-6E551B39414D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D961E04F-7A2C-46F4-BD80-D1E6E486E828}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D961E04F-7A2C-46F4-BD80-D1E6E486E828}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Linha</t>
   </si>
@@ -54,6 +55,15 @@
   </si>
   <si>
     <t>Par</t>
+  </si>
+  <si>
+    <t>Inteiro</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Tabuada</t>
   </si>
 </sst>
 </file>
@@ -439,9 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D97B59F-027B-43FB-BDFE-28E496E67D05}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -658,4 +666,177 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008A8965-5EC8-4657-BA26-729C2BDC003F}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>